--- a/Document/DOC_source/3. 일정정리(간트차트 작성)/JAVA 프로젝트 일정도표.xlsx
+++ b/Document/DOC_source/3. 일정정리(간트차트 작성)/JAVA 프로젝트 일정도표.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlseh\Desktop\GitHub\COMP_project\Document\DOC_source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,19 @@
   <sheets>
     <sheet name="COMP" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.0" hidden="1">COMP!$B$3:$B$21</definedName>
+    <definedName name="_xlchart.1" hidden="1">COMP!$C$2</definedName>
+    <definedName name="_xlchart.2" hidden="1">COMP!$C$3:$C$21</definedName>
+    <definedName name="_xlchart.3" hidden="1">COMP!$D$2</definedName>
+    <definedName name="_xlchart.4" hidden="1">COMP!$D$3:$D$21</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>시작일</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -61,11 +68,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>물리적 모델링,
-쿼리문 자동 생성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>DB환경 구성 및 샘플 입력</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -94,10 +96,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>도매컨트롤러 구현</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>프로그램 테스트 및 
 대본 작성</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -112,6 +110,15 @@
   </si>
   <si>
     <t>스토리 보드 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리적 모델링,
+쿼리문 생성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리 컨트롤러 구현</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -336,7 +343,7 @@
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -351,11 +358,641 @@
           </c:tx>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>COMP!$G$3:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>43773</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43773</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43773</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43774</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43774</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43774</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43775</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43776</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43777</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43778</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43779</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43779</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43782</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43783</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43784</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43784</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43794</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43797</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000008D-D169-44C0-B8F5-48E7F1A64806}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>COMP!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>기간</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000008F-D169-44C0-B8F5-48E7F1A64806}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000090-D169-44C0-B8F5-48E7F1A64806}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000091-D169-44C0-B8F5-48E7F1A64806}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000092-D169-44C0-B8F5-48E7F1A64806}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000093-D169-44C0-B8F5-48E7F1A64806}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000094-D169-44C0-B8F5-48E7F1A64806}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000095-D169-44C0-B8F5-48E7F1A64806}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000096-D169-44C0-B8F5-48E7F1A64806}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000097-D169-44C0-B8F5-48E7F1A64806}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000098-D169-44C0-B8F5-48E7F1A64806}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000099-D169-44C0-B8F5-48E7F1A64806}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000009A-D169-44C0-B8F5-48E7F1A64806}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000009B-D169-44C0-B8F5-48E7F1A64806}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000009C-D169-44C0-B8F5-48E7F1A64806}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000009D-D169-44C0-B8F5-48E7F1A64806}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000009E-D169-44C0-B8F5-48E7F1A64806}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000009F-D169-44C0-B8F5-48E7F1A64806}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>COMP!$B$3:$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>주제 설정</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>목적 정의</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>요구분석(자료수집)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>인스턴스 예시 작성</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>화면구성</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>요구분석 정의서 작성</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>테이블 명세서</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ERD 작성</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>논리적 모델링</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>스토리 보드 작성</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>물리적 모델링,
+쿼리문 생성</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>프로젝트 기획서 작성</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>DB환경 구성 및 샘플 입력</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Java환경 구성 및 FXML 구현</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>판매 컨트롤러 구현</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>관리 컨트롤러 구현</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>프로그램 테스트 및 
+대본 작성</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>리허설 및 최종안</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>프로젝트 발표일</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>COMP!$H$3:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000008E-D169-44C0-B8F5-48E7F1A64806}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>COMP!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>시작일</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
@@ -426,13 +1063,13 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2489-4440-90AF-42499A0BE5CE}"/>
+              <c16:uniqueId val="{00000068-D169-44C0-B8F5-48E7F1A64806}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>COMP!$D$2</c:f>
@@ -444,16 +1081,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
             <c:idx val="0"/>
@@ -474,7 +1101,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000012-2489-4440-90AF-42499A0BE5CE}"/>
+                <c16:uniqueId val="{0000006B-D169-44C0-B8F5-48E7F1A64806}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -497,7 +1124,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-2489-4440-90AF-42499A0BE5CE}"/>
+                <c16:uniqueId val="{0000006D-D169-44C0-B8F5-48E7F1A64806}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -520,7 +1147,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000010-2489-4440-90AF-42499A0BE5CE}"/>
+                <c16:uniqueId val="{0000006F-D169-44C0-B8F5-48E7F1A64806}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -543,7 +1170,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-2489-4440-90AF-42499A0BE5CE}"/>
+                <c16:uniqueId val="{00000071-D169-44C0-B8F5-48E7F1A64806}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -566,7 +1193,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000E-2489-4440-90AF-42499A0BE5CE}"/>
+                <c16:uniqueId val="{00000073-D169-44C0-B8F5-48E7F1A64806}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -589,7 +1216,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-2489-4440-90AF-42499A0BE5CE}"/>
+                <c16:uniqueId val="{00000075-D169-44C0-B8F5-48E7F1A64806}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -612,7 +1239,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000C-2489-4440-90AF-42499A0BE5CE}"/>
+                <c16:uniqueId val="{00000077-D169-44C0-B8F5-48E7F1A64806}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -635,7 +1262,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-2489-4440-90AF-42499A0BE5CE}"/>
+                <c16:uniqueId val="{00000079-D169-44C0-B8F5-48E7F1A64806}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -658,7 +1285,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000A-2489-4440-90AF-42499A0BE5CE}"/>
+                <c16:uniqueId val="{0000007B-D169-44C0-B8F5-48E7F1A64806}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -681,7 +1308,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-2489-4440-90AF-42499A0BE5CE}"/>
+                <c16:uniqueId val="{0000007D-D169-44C0-B8F5-48E7F1A64806}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -704,7 +1331,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000008-2489-4440-90AF-42499A0BE5CE}"/>
+                <c16:uniqueId val="{0000007F-D169-44C0-B8F5-48E7F1A64806}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -727,7 +1354,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-2489-4440-90AF-42499A0BE5CE}"/>
+                <c16:uniqueId val="{00000081-D169-44C0-B8F5-48E7F1A64806}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -750,7 +1377,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-2489-4440-90AF-42499A0BE5CE}"/>
+                <c16:uniqueId val="{00000083-D169-44C0-B8F5-48E7F1A64806}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -773,7 +1400,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-2489-4440-90AF-42499A0BE5CE}"/>
+                <c16:uniqueId val="{00000085-D169-44C0-B8F5-48E7F1A64806}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -796,12 +1423,35 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-2489-4440-90AF-42499A0BE5CE}"/>
+                <c16:uniqueId val="{00000087-D169-44C0-B8F5-48E7F1A64806}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="15"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000089-D169-44C0-B8F5-48E7F1A64806}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -819,30 +1469,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-2489-4440-90AF-42499A0BE5CE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="16"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-2489-4440-90AF-42499A0BE5CE}"/>
+                <c16:uniqueId val="{0000008B-D169-44C0-B8F5-48E7F1A64806}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -883,7 +1510,7 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>물리적 모델링,
-쿼리문 자동 생성</c:v>
+쿼리문 생성</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>프로젝트 기획서 작성</c:v>
@@ -898,7 +1525,7 @@
                   <c:v>판매 컨트롤러 구현</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>도매컨트롤러 구현</c:v>
+                  <c:v>관리 컨트롤러 구현</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>프로그램 테스트 및 
@@ -981,7 +1608,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2489-4440-90AF-42499A0BE5CE}"/>
+              <c16:uniqueId val="{0000008C-D169-44C0-B8F5-48E7F1A64806}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1006,7 +1633,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1103,33 +1730,11 @@
         <c:crossBetween val="between"/>
         <c:majorUnit val="3"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -1148,554 +1753,856 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
         <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
         <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>COMP!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>시작일</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>COMP!$G$3:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>43773</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43773</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43773</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43774</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43774</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43774</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43775</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43776</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43777</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43778</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43779</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43779</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43782</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43783</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43784</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43784</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43794</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43797</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2E27-4F85-A039-029CFC57858E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>COMP!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>기간</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-2E27-4F85-A039-029CFC57858E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-2E27-4F85-A039-029CFC57858E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-2E27-4F85-A039-029CFC57858E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-2E27-4F85-A039-029CFC57858E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-2E27-4F85-A039-029CFC57858E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-2E27-4F85-A039-029CFC57858E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-2E27-4F85-A039-029CFC57858E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000010-2E27-4F85-A039-029CFC57858E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000012-2E27-4F85-A039-029CFC57858E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000014-2E27-4F85-A039-029CFC57858E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000016-2E27-4F85-A039-029CFC57858E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000018-2E27-4F85-A039-029CFC57858E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001A-2E27-4F85-A039-029CFC57858E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001C-2E27-4F85-A039-029CFC57858E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001E-2E27-4F85-A039-029CFC57858E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000020-2E27-4F85-A039-029CFC57858E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000022-2E27-4F85-A039-029CFC57858E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>COMP!$B$3:$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>주제 설정</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>목적 정의</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>요구분석(자료수집)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>인스턴스 예시 작성</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>화면구성</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>요구분석 정의서 작성</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>테이블 명세서</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ERD 작성</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>논리적 모델링</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>스토리 보드 작성</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>물리적 모델링,
+쿼리문 생성</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>프로젝트 기획서 작성</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>DB환경 구성 및 샘플 입력</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Java환경 구성 및 FXML 구현</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>판매 컨트롤러 구현</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>관리 컨트롤러 구현</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>프로그램 테스트 및 
+대본 작성</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>리허설 및 최종안</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>프로젝트 발표일</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>COMP!$H$3:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000023-2E27-4F85-A039-029CFC57858E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="279694496"/>
+        <c:axId val="279691584"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="279694496"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="279691584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="279691584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="43798"/>
+          <c:min val="43773"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="yy&quot;/&quot;m&quot;/&quot;d;@" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="279694496"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="3"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>4761</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>442911</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>676274</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1709,6 +2616,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>271463</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>233363</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="차트 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2004,29 +2943,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="25.125" customWidth="1"/>
-    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="8.625" customWidth="1"/>
+    <col min="5" max="5" width="13.625" customWidth="1"/>
+    <col min="6" max="6" width="25.5" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -2034,8 +2976,17 @@
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2048,8 +2999,17 @@
       <c r="D3" s="2">
         <v>1</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>43773</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2062,8 +3022,17 @@
       <c r="D4" s="2">
         <v>1</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4">
+        <v>43773</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2076,8 +3045,17 @@
       <c r="D5" s="2">
         <v>3</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4">
+        <v>43773</v>
+      </c>
+      <c r="H5" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2090,13 +3068,22 @@
       <c r="D6" s="2">
         <v>2</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="4">
+        <v>43774</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4">
         <v>43774</v>
@@ -2104,8 +3091,17 @@
       <c r="D7" s="2">
         <v>3</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="4">
+        <v>43774</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2118,8 +3114,17 @@
       <c r="D8" s="2">
         <v>3</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4">
+        <v>43774</v>
+      </c>
+      <c r="H8" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2132,8 +3137,17 @@
       <c r="D9" s="2">
         <v>2</v>
       </c>
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="4">
+        <v>43775</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2146,8 +3160,17 @@
       <c r="D10" s="2">
         <v>3</v>
       </c>
+      <c r="F10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="4">
+        <v>43776</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2160,13 +3183,22 @@
       <c r="D11" s="2">
         <v>2</v>
       </c>
+      <c r="F11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="4">
+        <v>43777</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" s="4">
         <v>43778</v>
@@ -2174,13 +3206,22 @@
       <c r="D12" s="2">
         <v>2</v>
       </c>
+      <c r="F12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="4">
+        <v>43778</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C13" s="4">
         <v>43779</v>
@@ -2188,13 +3229,22 @@
       <c r="D13" s="2">
         <v>2</v>
       </c>
+      <c r="F13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="4">
+        <v>43779</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="14" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="4">
         <v>43780</v>
@@ -2202,13 +3252,22 @@
       <c r="D14" s="2">
         <v>2</v>
       </c>
+      <c r="F14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="4">
+        <v>43779</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="15" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="4">
         <v>43782</v>
@@ -2216,13 +3275,22 @@
       <c r="D15" s="2">
         <v>1</v>
       </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="4">
+        <v>43782</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="4">
         <v>43783</v>
@@ -2230,13 +3298,22 @@
       <c r="D16" s="2">
         <v>1</v>
       </c>
+      <c r="F16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="4">
+        <v>43783</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="4">
         <v>43784</v>
@@ -2244,13 +3321,22 @@
       <c r="D17" s="2">
         <v>4</v>
       </c>
+      <c r="F17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="4">
+        <v>43784</v>
+      </c>
+      <c r="H17" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="18" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C18" s="4">
         <v>43788</v>
@@ -2258,13 +3344,22 @@
       <c r="D18" s="2">
         <v>2</v>
       </c>
+      <c r="F18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="4">
+        <v>43784</v>
+      </c>
+      <c r="H18" s="2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="19" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19" s="4">
         <v>43791</v>
@@ -2272,13 +3367,22 @@
       <c r="D19" s="2">
         <v>6</v>
       </c>
+      <c r="F19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="4">
+        <v>43794</v>
+      </c>
+      <c r="H19" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="20" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="4">
         <v>43797</v>
@@ -2286,13 +3390,22 @@
       <c r="D20" s="2">
         <v>1</v>
       </c>
+      <c r="F20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="4">
+        <v>43797</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="4">
         <v>43798</v>
@@ -2300,21 +3413,30 @@
       <c r="D21" s="2">
         <v>1</v>
       </c>
+      <c r="F21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="4">
+        <v>43798</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" ht="28.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" ht="28.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" ht="28.5" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Document/DOC_source/3. 일정정리(간트차트 작성)/JAVA 프로젝트 일정도표.xlsx
+++ b/Document/DOC_source/3. 일정정리(간트차트 작성)/JAVA 프로젝트 일정도표.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\GitHub\COMP_project\Document\DOC_source\3. 일정정리(간트차트 작성)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,13 +14,6 @@
   <sheets>
     <sheet name="COMP" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.0" hidden="1">COMP!$B$3:$B$21</definedName>
-    <definedName name="_xlchart.1" hidden="1">COMP!$C$2</definedName>
-    <definedName name="_xlchart.2" hidden="1">COMP!$C$3:$C$21</definedName>
-    <definedName name="_xlchart.3" hidden="1">COMP!$D$2</definedName>
-    <definedName name="_xlchart.4" hidden="1">COMP!$D$3:$D$21</definedName>
-  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -2177,9 +2170,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln>
@@ -2196,6 +2189,26 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001A-2E27-4F85-A039-029CFC57858E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -2213,12 +2226,12 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001A-2E27-4F85-A039-029CFC57858E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="13"/>
+                <c16:uniqueId val="{0000001C-2E27-4F85-A039-029CFC57858E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -2236,12 +2249,12 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001C-2E27-4F85-A039-029CFC57858E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="14"/>
+                <c16:uniqueId val="{0000001E-2E27-4F85-A039-029CFC57858E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -2259,29 +2272,6 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001E-2E27-4F85-A039-029CFC57858E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="15"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000020-2E27-4F85-A039-029CFC57858E}"/>
               </c:ext>
             </c:extLst>
@@ -2306,6 +2296,39 @@
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000022-2E27-4F85-A039-029CFC57858E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000026-5FED-41D3-8B09-D0F0EBC73FF4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000028-5FED-41D3-8B09-D0F0EBC73FF4}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2945,8 +2968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
